--- a/Win32/Binaries/Table/vip.xlsx
+++ b/Win32/Binaries/Table/vip.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="注释" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +136,205 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>climtowertimes</t>
+  </si>
+  <si>
+    <t>爬塔玩法次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelvePalaceBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二宗宫次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twelvePalaceBossBuy</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人副本次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二宗宫boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜财神次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买勇气试炼次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>territorybuytimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardshow1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardshow2</t>
+  </si>
+  <si>
+    <t>awardshow3</t>
+  </si>
+  <si>
+    <t>awardshow4</t>
+  </si>
+  <si>
+    <t>awardservant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip礼包奖励1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip礼包奖励2</t>
+  </si>
+  <si>
+    <t>vip礼包奖励3</t>
+  </si>
+  <si>
+    <t>vip礼包奖励4</t>
+  </si>
+  <si>
+    <t>vip奖励佣兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有就不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接填佣兵ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填通用资源格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,2000);(1,1,300);(1,3,50)</t>
+  </si>
+  <si>
+    <t>(1,1,3000)</t>
+  </si>
+  <si>
+    <t>(1,1,4000)</t>
+  </si>
+  <si>
+    <t>(1,1,5000)</t>
+  </si>
+  <si>
+    <t>(1,1,6000)</t>
+  </si>
+  <si>
+    <t>(1,1,7000)</t>
+  </si>
+  <si>
+    <t>(1,1,8000)</t>
+  </si>
+  <si>
+    <t>(1,1,9000)</t>
+  </si>
+  <si>
+    <t>(1,1,10000)</t>
+  </si>
+  <si>
+    <t>(1,1,11000)</t>
+  </si>
+  <si>
+    <t>(1,1,12000)</t>
+  </si>
+  <si>
+    <t>(1,1,13000)</t>
+  </si>
+  <si>
+    <t>(1,1,14000)</t>
+  </si>
+  <si>
+    <t>(1,1,15000)</t>
+  </si>
+  <si>
+    <t>(1,1,1000);(1,1,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处奖励显示与商城内vip尊享礼包显示相同
+可直接连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包id，直接去giftshop取礼包奖励内容决定如何显示（giftshow字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人副本倍率开启
+客户端只支持2倍
+10000表示1倍，20000表示2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyrankgametimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyrankgametimes</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排位赛根据vip等级可额外购买次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行侠仗义vip购买次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cattaskbuytimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个字段干掉了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,79 +342,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>climtowertimes</t>
-  </si>
-  <si>
-    <t>爬塔玩法次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twelvePalaceBuy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二宗宫次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twelvePalaceBossBuy</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人副本次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人副本倍率开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二宗宫boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜财神次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mammon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买勇气试炼次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>territorybuytimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>territorybuytimes</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>需要成长值(此成长值代表升到下一级所需成长值,不减也不累加.例如vip3级右边单元格数字为100,代表vip3升到4需要100成长值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +366,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,13 +392,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -312,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +504,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +715,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -572,13 +737,14 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -598,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -628,19 +794,25 @@
         <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
         <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -693,21 +865,27 @@
         <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -728,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -740,36 +918,39 @@
         <v>10</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -790,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -802,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,27 +992,33 @@
         <v>6</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>9101</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>8000</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -852,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -864,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,27 +1060,33 @@
         <v>6</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
       <c r="T5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>9102</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>18000</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -915,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -927,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -936,27 +1129,33 @@
         <v>6</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>9103</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -977,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -989,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -998,27 +1197,33 @@
         <v>6</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
+        <v>9104</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1039,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1051,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1060,27 +1265,33 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>9105</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>100000</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1101,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1113,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1122,27 +1333,33 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>9106</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>150000</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1163,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1175,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1184,27 +1401,33 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>9107</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1500</v>
+        <v>200000</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1225,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1237,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1246,27 +1469,33 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>9108</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>300000</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1287,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1299,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1308,27 +1537,33 @@
         <v>7</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>9109</v>
+      </c>
+      <c r="U12">
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>3000</v>
+        <v>500000</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1349,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1361,36 +1596,42 @@
         <v>10</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>9110</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>5000</v>
+        <v>800000</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1411,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1423,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -1432,27 +1673,33 @@
         <v>8</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>9111</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>8000</v>
+        <v>1000000</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1473,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1485,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -1494,27 +1741,33 @@
         <v>8</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>9112</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>1200000</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1535,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1547,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -1556,27 +1809,33 @@
         <v>8</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>9113</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1597,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1609,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -1618,19 +1877,25 @@
         <v>8</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>15</v>
+        <v>9114</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1641,14 +1906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1660,138 +1925,189 @@
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" customWidth="1"/>
+    <col min="22" max="25" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="W2" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="X2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1835,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10000</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1849,8 +2165,14 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="Z3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1896,8 +2218,8 @@
       <c r="O4">
         <v>6</v>
       </c>
-      <c r="P4">
-        <v>1</v>
+      <c r="P4" s="2">
+        <v>10000</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1908,8 +2230,20 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>9101</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1955,8 +2289,8 @@
       <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5">
-        <v>1</v>
+      <c r="P5" s="2">
+        <v>10000</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1967,8 +2301,17 @@
       <c r="T5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>9102</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1995,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2015,8 +2358,8 @@
       <c r="O6">
         <v>6</v>
       </c>
-      <c r="P6">
-        <v>1</v>
+      <c r="P6" s="2">
+        <v>10000</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2027,8 +2370,17 @@
       <c r="T6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>9103</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2054,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2074,8 +2426,8 @@
       <c r="O7">
         <v>6</v>
       </c>
-      <c r="P7">
-        <v>1</v>
+      <c r="P7" s="2">
+        <v>10000</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2086,8 +2438,14 @@
       <c r="T7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>9104</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2113,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2133,8 +2491,8 @@
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <v>2</v>
+      <c r="P8" s="2">
+        <v>20000</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2145,8 +2503,14 @@
       <c r="T8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>9105</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2172,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2192,8 +2556,8 @@
       <c r="O9">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>2</v>
+      <c r="P9" s="2">
+        <v>20000</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2204,8 +2568,14 @@
       <c r="T9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>9106</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2231,7 +2601,7 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2251,8 +2621,8 @@
       <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10">
-        <v>2</v>
+      <c r="P10" s="2">
+        <v>20000</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2263,8 +2633,14 @@
       <c r="T10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>9107</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2290,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2310,8 +2686,8 @@
       <c r="O11">
         <v>7</v>
       </c>
-      <c r="P11">
-        <v>3</v>
+      <c r="P11" s="2">
+        <v>20000</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2322,8 +2698,14 @@
       <c r="T11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>9108</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2349,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2369,8 +2751,8 @@
       <c r="O12">
         <v>7</v>
       </c>
-      <c r="P12">
-        <v>3</v>
+      <c r="P12" s="2">
+        <v>20000</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -2381,8 +2763,14 @@
       <c r="T12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>9109</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2408,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2426,10 +2814,10 @@
         <v>4</v>
       </c>
       <c r="O13">
-        <v>8</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20000</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -2440,8 +2828,14 @@
       <c r="T13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>9110</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2467,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2487,8 +2881,8 @@
       <c r="O14">
         <v>8</v>
       </c>
-      <c r="P14">
-        <v>4</v>
+      <c r="P14" s="2">
+        <v>20000</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -2499,8 +2893,14 @@
       <c r="T14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>9111</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2526,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2546,8 +2946,8 @@
       <c r="O15">
         <v>8</v>
       </c>
-      <c r="P15">
-        <v>4</v>
+      <c r="P15" s="2">
+        <v>20000</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -2558,8 +2958,14 @@
       <c r="T15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>9112</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2585,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2605,8 +3011,8 @@
       <c r="O16">
         <v>8</v>
       </c>
-      <c r="P16">
-        <v>4</v>
+      <c r="P16" s="2">
+        <v>20000</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -2617,8 +3023,14 @@
       <c r="T16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>9113</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2644,7 +3056,7 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2664,8 +3076,8 @@
       <c r="O17">
         <v>8</v>
       </c>
-      <c r="P17">
-        <v>4</v>
+      <c r="P17" s="2">
+        <v>20000</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -2675,6 +3087,92 @@
       </c>
       <c r="T17">
         <v>15</v>
+      </c>
+      <c r="U17">
+        <v>9114</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="P19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V38" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2682,4 +3180,2494 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>9101</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>9102</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <f>H5+1</f>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>9103</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>9104</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>9105</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>9106</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>9107</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1500</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>9108</v>
+      </c>
+      <c r="U12">
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>9109</v>
+      </c>
+      <c r="U13">
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>9110</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>9111</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>8000</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>80</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>9112</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>9113</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>12000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>9114</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>IF(C4=C5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:V32" si="0">IF(D4=D5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f>SUM(C19:V19)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:R32" si="1">IF(C5=C6,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W32" si="2">SUM(C20:V20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C19:W32">
+    <cfRule type="aboveAverage" dxfId="0" priority="1" aboveAverage="0"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>